--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerStatus.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/dockerStatus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -233,18 +228,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Stop</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Error</t>
     </r>
   </si>
@@ -257,18 +240,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Stopping</t>
     </r>
   </si>
@@ -297,7 +268,15 @@
     </r>
   </si>
   <si>
-    <t>Pending</t>
+    <t xml:space="preserve"> Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stopped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +294,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -341,8 +335,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,19 +678,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,10 +699,11 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -716,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -724,10 +722,11 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -735,10 +734,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -746,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -757,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -768,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -779,12 +778,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B8" numberStoredAsText="1"/>
   </ignoredErrors>
